--- a/TestData/Contact_Form data.xlsx
+++ b/TestData/Contact_Form data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="36">
   <si>
     <t>India</t>
   </si>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,6 +267,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -697,7 +740,7 @@
       <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s" s="34">
+      <c r="M2" t="s" s="77">
         <v>29</v>
       </c>
       <c r="N2" t="s" s="0">
@@ -741,7 +784,7 @@
       <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s" s="35">
+      <c r="M3" t="s" s="78">
         <v>29</v>
       </c>
       <c r="N3" t="s" s="0">
@@ -785,7 +828,7 @@
       <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s" s="36">
+      <c r="M4" t="s" s="79">
         <v>29</v>
       </c>
       <c r="N4" t="s" s="0">
@@ -829,7 +872,7 @@
       <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s" s="37">
+      <c r="M5" t="s" s="80">
         <v>29</v>
       </c>
       <c r="N5" t="s" s="0">
@@ -873,7 +916,7 @@
       <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s" s="38">
+      <c r="M6" t="s" s="81">
         <v>33</v>
       </c>
       <c r="N6" t="s" s="0">
